--- a/carl/wireframe_GME-CombinedDF_2020-03-05_2021-03-04.xlsx
+++ b/carl/wireframe_GME-CombinedDF_2020-03-05_2021-03-04.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffm\GitHub\FinalProject-Stock\carl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffm\GitHub\FinalProject-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3823F56-CC69-4CAC-9807-76FC8ECE0D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740BA88-9FFF-44AF-968F-B97AEA6CC72F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wireframe_GME-CombinedDF_2020-0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'wireframe_GME-CombinedDF_2020-0'!$A$4:$G$4</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,12 +208,11 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,15 +657,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +697,18 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -730,7 +757,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -748,15 +775,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>238126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -788,12 +815,33 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="171451"/>
-          <a:ext cx="514350" cy="514350"/>
+          <a:off x="28576" y="238126"/>
+          <a:ext cx="476249" cy="476249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57785" dist="33020" dir="3180000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="brightRoom" dir="t">
+            <a:rot lat="0" lon="0" rev="600000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d prstMaterial="metal">
+          <a:bevelT w="38100" h="57150" prst="angle"/>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1402,3467 +1450,4404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="12.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="12.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>43895</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="B5" s="16">
+        <v>3599400</v>
+      </c>
+      <c r="C5" s="8">
         <v>3.96</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43896</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="16">
+        <v>2096800</v>
+      </c>
+      <c r="C6" s="4">
         <v>3.92</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43899</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="B7" s="16">
+        <v>2732000</v>
+      </c>
+      <c r="C7" s="4">
         <v>3.7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43900</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="16">
+        <v>4863200</v>
+      </c>
+      <c r="C8" s="4">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43901</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="16">
+        <v>4414100</v>
+      </c>
+      <c r="C9" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43902</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="B10" s="16">
+        <v>5123400</v>
+      </c>
+      <c r="C10" s="4">
         <v>3.98</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43903</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="16">
+        <v>5787200</v>
+      </c>
+      <c r="C11" s="4">
         <v>4.59</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43906</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="B12" s="16">
+        <v>4866700</v>
+      </c>
+      <c r="C12" s="4">
         <v>4.37</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43907</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="B13" s="16">
+        <v>3562200</v>
+      </c>
+      <c r="C13" s="4">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43908</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="16">
+        <v>3651700</v>
+      </c>
+      <c r="C14" s="4">
         <v>3.77</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43909</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="B15" s="16">
+        <v>5039500</v>
+      </c>
+      <c r="C15" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43910</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
+      <c r="B16" s="16">
+        <v>7722200</v>
+      </c>
+      <c r="C16" s="4">
         <v>3.76</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>43913</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="B17" s="16">
+        <v>6009800</v>
+      </c>
+      <c r="C17" s="4">
         <v>3.81</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43914</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="B18" s="16">
+        <v>6805600</v>
+      </c>
+      <c r="C18" s="4">
         <v>4.16</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43915</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+      <c r="B19" s="16">
+        <v>3592100</v>
+      </c>
+      <c r="C19" s="4">
         <v>4.17</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43916</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5">
+      <c r="B20" s="16">
+        <v>6185700</v>
+      </c>
+      <c r="C20" s="4">
         <v>4.41</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>43917</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5">
+      <c r="B21" s="16">
+        <v>7024800</v>
+      </c>
+      <c r="C21" s="4">
         <v>4.22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>43920</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5">
+      <c r="B22" s="16">
+        <v>3350600</v>
+      </c>
+      <c r="C22" s="4">
         <v>3.65</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>43921</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5">
+      <c r="B23" s="16">
+        <v>2300900</v>
+      </c>
+      <c r="C23" s="4">
         <v>3.5</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>43922</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5">
+      <c r="B24" s="16">
+        <v>4568700</v>
+      </c>
+      <c r="C24" s="4">
         <v>3.25</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>43923</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
+      <c r="B25" s="16">
+        <v>4064300</v>
+      </c>
+      <c r="C25" s="4">
         <v>2.85</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>43924</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
+      <c r="B26" s="16">
+        <v>3830400</v>
+      </c>
+      <c r="C26" s="4">
         <v>2.8</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>43927</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5">
+      <c r="B27" s="16">
+        <v>3340500</v>
+      </c>
+      <c r="C27" s="4">
         <v>3.09</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>43928</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="B28" s="16">
+        <v>2836900</v>
+      </c>
+      <c r="C28" s="4">
         <v>3.27</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>43929</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
+      <c r="B29" s="16">
+        <v>2884500</v>
+      </c>
+      <c r="C29" s="4">
         <v>3.41</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>43930</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
+      <c r="B30" s="16">
+        <v>5908600</v>
+      </c>
+      <c r="C30" s="4">
         <v>3.89</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>43934</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+      <c r="B31" s="16">
+        <v>6844500</v>
+      </c>
+      <c r="C31" s="4">
         <v>4.74</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>43935</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5">
+      <c r="B32" s="16">
+        <v>13506600</v>
+      </c>
+      <c r="C32" s="4">
         <v>5.95</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>43936</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
+      <c r="B33" s="16">
+        <v>7499900</v>
+      </c>
+      <c r="C33" s="4">
         <v>5.27</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>43937</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
+      <c r="B34" s="16">
+        <v>3371900</v>
+      </c>
+      <c r="C34" s="4">
         <v>5.03</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>43938</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5">
+      <c r="B35" s="16">
+        <v>5653200</v>
+      </c>
+      <c r="C35" s="4">
         <v>4.88</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>43941</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
+      <c r="B36" s="16">
+        <v>6085000</v>
+      </c>
+      <c r="C36" s="4">
         <v>5.61</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>43942</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5">
+      <c r="B37" s="16">
+        <v>4142100</v>
+      </c>
+      <c r="C37" s="4">
         <v>4.78</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>43943</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5">
+      <c r="B38" s="16">
+        <v>2677800</v>
+      </c>
+      <c r="C38" s="4">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>43944</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5">
+      <c r="B39" s="16">
+        <v>2265900</v>
+      </c>
+      <c r="C39" s="4">
         <v>4.7</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>43945</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
+      <c r="B40" s="16">
+        <v>2236200</v>
+      </c>
+      <c r="C40" s="4">
         <v>4.7699999999999996</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>43948</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
+      <c r="B41" s="16">
+        <v>7275100</v>
+      </c>
+      <c r="C41" s="4">
         <v>5.82</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>43949</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
+      <c r="B42" s="16">
+        <v>5200200</v>
+      </c>
+      <c r="C42" s="4">
         <v>5.64</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>43950</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5">
+      <c r="B43" s="16">
+        <v>3369600</v>
+      </c>
+      <c r="C43" s="4">
         <v>6.04</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43951</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5">
+      <c r="B44" s="16">
+        <v>2173300</v>
+      </c>
+      <c r="C44" s="4">
         <v>5.73</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>43952</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5">
+      <c r="B45" s="16">
+        <v>4005600</v>
+      </c>
+      <c r="C45" s="4">
         <v>6.05</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>43955</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
+      <c r="B46" s="16">
+        <v>4068100</v>
+      </c>
+      <c r="C46" s="4">
         <v>5.48</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>43956</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5">
+      <c r="B47" s="16">
+        <v>2105900</v>
+      </c>
+      <c r="C47" s="4">
         <v>5.39</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>43957</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5">
+      <c r="B48" s="16">
+        <v>3369600</v>
+      </c>
+      <c r="C48" s="4">
         <v>4.93</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>43958</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5">
+      <c r="B49" s="16">
+        <v>2500800</v>
+      </c>
+      <c r="C49" s="4">
         <v>4.87</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>43959</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
+      <c r="B50" s="16">
+        <v>2353700</v>
+      </c>
+      <c r="C50" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>43962</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5">
+      <c r="B51" s="16">
+        <v>1699200</v>
+      </c>
+      <c r="C51" s="4">
         <v>4.76</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>43963</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5">
+      <c r="B52" s="16">
+        <v>2639200</v>
+      </c>
+      <c r="C52" s="4">
         <v>4.54</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>43964</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5">
+      <c r="B53" s="16">
+        <v>2882900</v>
+      </c>
+      <c r="C53" s="4">
         <v>4.21</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>43965</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5">
+      <c r="B54" s="16">
+        <v>2004900</v>
+      </c>
+      <c r="C54" s="4">
         <v>4.13</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>43966</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5">
+      <c r="B55" s="16">
+        <v>1940600</v>
+      </c>
+      <c r="C55" s="4">
         <v>4.22</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>43969</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5">
+      <c r="B56" s="16">
+        <v>2371700</v>
+      </c>
+      <c r="C56" s="4">
         <v>4.58</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>43970</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5">
+      <c r="B57" s="16">
+        <v>1840700</v>
+      </c>
+      <c r="C57" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>43971</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5">
+      <c r="B58" s="16">
+        <v>2543600</v>
+      </c>
+      <c r="C58" s="4">
         <v>4.43</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>43972</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5">
+      <c r="B59" s="16">
+        <v>1971900</v>
+      </c>
+      <c r="C59" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>43973</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5">
+      <c r="B60" s="16">
+        <v>2379900</v>
+      </c>
+      <c r="C60" s="4">
         <v>4.18</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>43977</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5">
+      <c r="B61" s="16">
+        <v>3545700</v>
+      </c>
+      <c r="C61" s="4">
         <v>4.42</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>43978</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5">
+      <c r="B62" s="16">
+        <v>3146600</v>
+      </c>
+      <c r="C62" s="4">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>43979</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5">
+      <c r="B63" s="16">
+        <v>2183900</v>
+      </c>
+      <c r="C63" s="4">
         <v>4.33</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>43980</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
+      <c r="B64" s="16">
+        <v>3973500</v>
+      </c>
+      <c r="C64" s="4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>43983</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5">
+      <c r="B65" s="16">
+        <v>2611600</v>
+      </c>
+      <c r="C65" s="4">
         <v>4.13</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>43984</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5">
+      <c r="B66" s="16">
+        <v>2369400</v>
+      </c>
+      <c r="C66" s="4">
         <v>4.18</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>43985</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5">
+      <c r="B67" s="16">
+        <v>3037400</v>
+      </c>
+      <c r="C67" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>43986</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5">
+      <c r="B68" s="16">
+        <v>3514300</v>
+      </c>
+      <c r="C68" s="4">
         <v>4.47</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>43987</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5">
+      <c r="B69" s="16">
+        <v>6274400</v>
+      </c>
+      <c r="C69" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>43990</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5">
+      <c r="B70" s="16">
+        <v>10133700</v>
+      </c>
+      <c r="C70" s="4">
         <v>5.01</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>43991</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5">
+      <c r="B71" s="16">
+        <v>8073400</v>
+      </c>
+      <c r="C71" s="4">
         <v>4.96</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>43992</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5">
+      <c r="B72" s="16">
+        <v>10606400</v>
+      </c>
+      <c r="C72" s="4">
         <v>5.07</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>43993</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5">
+      <c r="B73" s="16">
+        <v>6236000</v>
+      </c>
+      <c r="C73" s="4">
         <v>4.37</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>43994</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5">
+      <c r="B74" s="16">
+        <v>4378200</v>
+      </c>
+      <c r="C74" s="4">
         <v>4.72</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>43997</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5">
+      <c r="B75" s="16">
+        <v>3909000</v>
+      </c>
+      <c r="C75" s="4">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>43998</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5">
+      <c r="B76" s="16">
+        <v>3121300</v>
+      </c>
+      <c r="C76" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>43999</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5">
+      <c r="B77" s="16">
+        <v>3593500</v>
+      </c>
+      <c r="C77" s="4">
         <v>4.76</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>44000</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5">
+      <c r="B78" s="16">
+        <v>3423800</v>
+      </c>
+      <c r="C78" s="4">
         <v>4.95</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>44001</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5">
+      <c r="B79" s="16">
+        <v>7366600</v>
+      </c>
+      <c r="C79" s="4">
         <v>4.88</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>44004</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5">
+      <c r="B80" s="16">
+        <v>3178900</v>
+      </c>
+      <c r="C80" s="4">
         <v>4.87</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>44005</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5">
+      <c r="B81" s="16">
+        <v>3205400</v>
+      </c>
+      <c r="C81" s="4">
         <v>4.83</v>
       </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>44006</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5">
+      <c r="B82" s="16">
+        <v>2976200</v>
+      </c>
+      <c r="C82" s="4">
         <v>4.41</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>44007</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5">
+      <c r="B83" s="16">
+        <v>2450800</v>
+      </c>
+      <c r="C83" s="4">
         <v>4.46</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>44008</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5">
+      <c r="B84" s="16">
+        <v>3801200</v>
+      </c>
+      <c r="C84" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>44011</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5">
+      <c r="B85" s="16">
+        <v>2131200</v>
+      </c>
+      <c r="C85" s="4">
         <v>4.38</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>44012</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5">
+      <c r="B86" s="16">
+        <v>3889000</v>
+      </c>
+      <c r="C86" s="4">
         <v>4.34</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>44013</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5">
+      <c r="B87" s="16">
+        <v>2303700</v>
+      </c>
+      <c r="C87" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>44014</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5">
+      <c r="B88" s="16">
+        <v>1887600</v>
+      </c>
+      <c r="C88" s="4">
         <v>4.29</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>44018</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5">
+      <c r="B89" s="16">
+        <v>2140900</v>
+      </c>
+      <c r="C89" s="4">
         <v>4.24</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>44019</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5">
+      <c r="B90" s="16">
+        <v>2456600</v>
+      </c>
+      <c r="C90" s="4">
         <v>4.09</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>44020</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5">
+      <c r="B91" s="16">
+        <v>2052800</v>
+      </c>
+      <c r="C91" s="4">
         <v>4.26</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>44021</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5">
+      <c r="B92" s="16">
+        <v>1992600</v>
+      </c>
+      <c r="C92" s="4">
         <v>4.21</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>44022</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5">
+      <c r="B93" s="16">
+        <v>1410800</v>
+      </c>
+      <c r="C93" s="4">
         <v>4.34</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>44025</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5">
+      <c r="B94" s="16">
+        <v>4216200</v>
+      </c>
+      <c r="C94" s="4">
         <v>4.26</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>44026</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5">
+      <c r="B95" s="16">
+        <v>2261600</v>
+      </c>
+      <c r="C95" s="4">
         <v>4.08</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>44027</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5">
+      <c r="B96" s="16">
+        <v>1474100</v>
+      </c>
+      <c r="C96" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>44028</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5">
+      <c r="B97" s="16">
+        <v>1330100</v>
+      </c>
+      <c r="C97" s="4">
         <v>4.17</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>44029</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5">
+      <c r="B98" s="16">
+        <v>3065900</v>
+      </c>
+      <c r="C98" s="4">
         <v>3.96</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>44032</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5">
+      <c r="B99" s="16">
+        <v>3401100</v>
+      </c>
+      <c r="C99" s="4">
         <v>3.85</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>44033</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5">
+      <c r="B100" s="16">
+        <v>3341000</v>
+      </c>
+      <c r="C100" s="4">
         <v>4.01</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>44034</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5">
+      <c r="B101" s="16">
+        <v>2523500</v>
+      </c>
+      <c r="C101" s="4">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>44035</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5">
+      <c r="B102" s="16">
+        <v>3237200</v>
+      </c>
+      <c r="C102" s="4">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>44036</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5">
+      <c r="B103" s="16">
+        <v>2215900</v>
+      </c>
+      <c r="C103" s="4">
         <v>4.03</v>
       </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>44039</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5">
+      <c r="B104" s="16">
+        <v>2472700</v>
+      </c>
+      <c r="C104" s="4">
         <v>4.01</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>44040</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5">
+      <c r="B105" s="16">
+        <v>4555400</v>
+      </c>
+      <c r="C105" s="4">
         <v>3.94</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>44041</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5">
+      <c r="B106" s="16">
+        <v>2879600</v>
+      </c>
+      <c r="C106" s="4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>44042</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5">
+      <c r="B107" s="16">
+        <v>2398500</v>
+      </c>
+      <c r="C107" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>44043</v>
       </c>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5">
+      <c r="B108" s="16">
+        <v>1879400</v>
+      </c>
+      <c r="C108" s="4">
         <v>4.01</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>44046</v>
       </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5">
+      <c r="B109" s="16">
+        <v>2517600</v>
+      </c>
+      <c r="C109" s="4">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>44047</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5">
+      <c r="B110" s="16">
+        <v>10361400</v>
+      </c>
+      <c r="C110" s="4">
         <v>4.43</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>44048</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5">
+      <c r="B111" s="16">
+        <v>4925700</v>
+      </c>
+      <c r="C111" s="4">
         <v>4.63</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>44049</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5">
+      <c r="B112" s="16">
+        <v>1901200</v>
+      </c>
+      <c r="C112" s="4">
         <v>4.43</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>44050</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5">
+      <c r="B113" s="16">
+        <v>3341100</v>
+      </c>
+      <c r="C113" s="4">
         <v>4.16</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>44053</v>
       </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5">
+      <c r="B114" s="16">
+        <v>4561800</v>
+      </c>
+      <c r="C114" s="4">
         <v>4.33</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>44054</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5">
+      <c r="B115" s="16">
+        <v>3138800</v>
+      </c>
+      <c r="C115" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>44055</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5">
+      <c r="B116" s="16">
+        <v>3057600</v>
+      </c>
+      <c r="C116" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>44056</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5">
+      <c r="B117" s="16">
+        <v>2128300</v>
+      </c>
+      <c r="C117" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>44057</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5">
+      <c r="B118" s="16">
+        <v>3474400</v>
+      </c>
+      <c r="C118" s="4">
         <v>4.75</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>44060</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5">
+      <c r="B119" s="16">
+        <v>2371000</v>
+      </c>
+      <c r="C119" s="4">
         <v>4.63</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>44061</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5">
+      <c r="B120" s="16">
+        <v>3834400</v>
+      </c>
+      <c r="C120" s="4">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>44062</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5">
+      <c r="B121" s="16">
+        <v>2612600</v>
+      </c>
+      <c r="C121" s="4">
         <v>4.72</v>
       </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>44063</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5">
+      <c r="B122" s="16">
+        <v>2441200</v>
+      </c>
+      <c r="C122" s="4">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>44064</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5">
+      <c r="B123" s="16">
+        <v>10642600</v>
+      </c>
+      <c r="C123" s="4">
         <v>5.03</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>44067</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5">
+      <c r="B124" s="16">
+        <v>4585400</v>
+      </c>
+      <c r="C124" s="4">
         <v>4.87</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>44068</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5">
+      <c r="B125" s="16">
+        <v>2998700</v>
+      </c>
+      <c r="C125" s="4">
         <v>4.9800000000000004</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>44069</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5">
+      <c r="B126" s="16">
+        <v>2779700</v>
+      </c>
+      <c r="C126" s="4">
         <v>5.1100000000000003</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>44070</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5">
+      <c r="B127" s="16">
+        <v>3384400</v>
+      </c>
+      <c r="C127" s="4">
         <v>5.25</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>44071</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5">
+      <c r="B128" s="16">
+        <v>4236900</v>
+      </c>
+      <c r="C128" s="4">
         <v>5.39</v>
       </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>44074</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5">
+      <c r="B129" s="16">
+        <v>37976000</v>
+      </c>
+      <c r="C129" s="4">
         <v>6.68</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>44075</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5">
+      <c r="B130" s="16">
+        <v>23211000</v>
+      </c>
+      <c r="C130" s="4">
         <v>7.65</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>44076</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5">
+      <c r="B131" s="16">
+        <v>13011100</v>
+      </c>
+      <c r="C131" s="4">
         <v>7.71</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>44077</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5">
+      <c r="B132" s="16">
+        <v>14344500</v>
+      </c>
+      <c r="C132" s="4">
         <v>7.82</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>44078</v>
       </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5">
+      <c r="B133" s="16">
+        <v>7662000</v>
+      </c>
+      <c r="C133" s="4">
         <v>7.65</v>
       </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>44082</v>
       </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5">
+      <c r="B134" s="16">
+        <v>9816600</v>
+      </c>
+      <c r="C134" s="4">
         <v>7.7</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>44083</v>
       </c>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5">
+      <c r="B135" s="16">
+        <v>9068100</v>
+      </c>
+      <c r="C135" s="4">
         <v>7.35</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>44084</v>
       </c>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5">
+      <c r="B136" s="16">
+        <v>15558300</v>
+      </c>
+      <c r="C136" s="4">
         <v>6.23</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>44085</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5">
+      <c r="B137" s="16">
+        <v>6061200</v>
+      </c>
+      <c r="C137" s="4">
         <v>6.09</v>
       </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>44088</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5">
+      <c r="B138" s="16">
+        <v>10119000</v>
+      </c>
+      <c r="C138" s="4">
         <v>6.91</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>44089</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5">
+      <c r="B139" s="16">
+        <v>5743500</v>
+      </c>
+      <c r="C139" s="4">
         <v>7.09</v>
       </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>44090</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5">
+      <c r="B140" s="16">
+        <v>19256300</v>
+      </c>
+      <c r="C140" s="4">
         <v>8.68</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>44091</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5">
+      <c r="B141" s="16">
+        <v>17026700</v>
+      </c>
+      <c r="C141" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>44092</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5">
+      <c r="B142" s="16">
+        <v>17407500</v>
+      </c>
+      <c r="C142" s="4">
         <v>9.4700000000000006</v>
       </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>44095</v>
       </c>
-      <c r="B143" s="5"/>
-      <c r="C143" s="5">
+      <c r="B143" s="16">
+        <v>7639800</v>
+      </c>
+      <c r="C143" s="4">
         <v>8.75</v>
       </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>44096</v>
       </c>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5">
+      <c r="B144" s="16">
+        <v>34752500</v>
+      </c>
+      <c r="C144" s="4">
         <v>10.56</v>
       </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>44097</v>
       </c>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5">
+      <c r="B145" s="16">
+        <v>10651200</v>
+      </c>
+      <c r="C145" s="4">
         <v>10.039999999999999</v>
       </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>44098</v>
       </c>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5">
+      <c r="B146" s="16">
+        <v>7938800</v>
+      </c>
+      <c r="C146" s="4">
         <v>9.14</v>
       </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>44099</v>
       </c>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5">
+      <c r="B147" s="16">
+        <v>7515200</v>
+      </c>
+      <c r="C147" s="4">
         <v>10.02</v>
       </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>44102</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5">
+      <c r="B148" s="16">
+        <v>6764300</v>
+      </c>
+      <c r="C148" s="4">
         <v>10.09</v>
       </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>44103</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5">
+      <c r="B149" s="16">
+        <v>5237600</v>
+      </c>
+      <c r="C149" s="4">
         <v>10.35</v>
       </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>44104</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5">
+      <c r="B150" s="16">
+        <v>6079000</v>
+      </c>
+      <c r="C150" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>44105</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5">
+      <c r="B151" s="16">
+        <v>4554100</v>
+      </c>
+      <c r="C151" s="4">
         <v>9.77</v>
       </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>44106</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5">
+      <c r="B152" s="16">
+        <v>4340500</v>
+      </c>
+      <c r="C152" s="4">
         <v>9.39</v>
       </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>44109</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5">
+      <c r="B153" s="16">
+        <v>2805000</v>
+      </c>
+      <c r="C153" s="4">
         <v>9.4600000000000009</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>44110</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5">
+      <c r="B154" s="16">
+        <v>4535400</v>
+      </c>
+      <c r="C154" s="4">
         <v>9.1300000000000008</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>44111</v>
       </c>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5">
+      <c r="B155" s="16">
+        <v>3308600</v>
+      </c>
+      <c r="C155" s="4">
         <v>9.36</v>
       </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>44112</v>
       </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5">
+      <c r="B156" s="16">
+        <v>76453600</v>
+      </c>
+      <c r="C156" s="4">
         <v>13.49</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>44113</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5">
+      <c r="B157" s="16">
+        <v>77152800</v>
+      </c>
+      <c r="C157" s="4">
         <v>12.02</v>
       </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>44116</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5">
+      <c r="B158" s="16">
+        <v>23655700</v>
+      </c>
+      <c r="C158" s="4">
         <v>11.8</v>
       </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>44117</v>
       </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5">
+      <c r="B159" s="16">
+        <v>10179700</v>
+      </c>
+      <c r="C159" s="4">
         <v>11.88</v>
       </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>44118</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5">
+      <c r="B160" s="16">
+        <v>10776800</v>
+      </c>
+      <c r="C160" s="4">
         <v>12.25</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>44119</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5">
+      <c r="B161" s="16">
+        <v>39894800</v>
+      </c>
+      <c r="C161" s="4">
         <v>13.83</v>
       </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>44120</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5">
+      <c r="B162" s="16">
+        <v>11651600</v>
+      </c>
+      <c r="C162" s="4">
         <v>13.31</v>
       </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>44123</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5">
+      <c r="B163" s="16">
+        <v>13169100</v>
+      </c>
+      <c r="C163" s="4">
         <v>13.91</v>
       </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>44124</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5">
+      <c r="B164" s="16">
+        <v>6604000</v>
+      </c>
+      <c r="C164" s="4">
         <v>13.86</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>44125</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5">
+      <c r="B165" s="16">
+        <v>5361900</v>
+      </c>
+      <c r="C165" s="4">
         <v>14.1</v>
       </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>44126</v>
       </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5">
+      <c r="B166" s="16">
+        <v>16212200</v>
+      </c>
+      <c r="C166" s="4">
         <v>14.91</v>
       </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>44127</v>
       </c>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5">
+      <c r="B167" s="16">
+        <v>6507300</v>
+      </c>
+      <c r="C167" s="4">
         <v>15</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>44130</v>
       </c>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5">
+      <c r="B168" s="16">
+        <v>13376300</v>
+      </c>
+      <c r="C168" s="4">
         <v>13.45</v>
       </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>44131</v>
       </c>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5">
+      <c r="B169" s="16">
+        <v>7231000</v>
+      </c>
+      <c r="C169" s="4">
         <v>12.69</v>
       </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>44132</v>
       </c>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5">
+      <c r="B170" s="16">
+        <v>6388600</v>
+      </c>
+      <c r="C170" s="4">
         <v>11.82</v>
       </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>44133</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5">
+      <c r="B171" s="16">
+        <v>4165800</v>
+      </c>
+      <c r="C171" s="4">
         <v>11.73</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>44134</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5">
+      <c r="B172" s="16">
+        <v>11546900</v>
+      </c>
+      <c r="C172" s="4">
         <v>10.47</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>44137</v>
       </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5">
+      <c r="B173" s="16">
+        <v>5227000</v>
+      </c>
+      <c r="C173" s="4">
         <v>10.75</v>
       </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>44138</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5">
+      <c r="B174" s="16">
+        <v>7454500</v>
+      </c>
+      <c r="C174" s="4">
         <v>11.57</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>44139</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5">
+      <c r="B175" s="16">
+        <v>5807900</v>
+      </c>
+      <c r="C175" s="4">
         <v>10.91</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>44140</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5">
+      <c r="B176" s="16">
+        <v>4705200</v>
+      </c>
+      <c r="C176" s="4">
         <v>11.45</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>44141</v>
       </c>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5">
+      <c r="B177" s="16">
+        <v>5518200</v>
+      </c>
+      <c r="C177" s="4">
         <v>11.86</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>44144</v>
       </c>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5">
+      <c r="B178" s="16">
+        <v>6244900</v>
+      </c>
+      <c r="C178" s="4">
         <v>11.49</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="5"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>44145</v>
       </c>
-      <c r="B179" s="5"/>
-      <c r="C179" s="5">
+      <c r="B179" s="16">
+        <v>3826000</v>
+      </c>
+      <c r="C179" s="4">
         <v>11.1</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>44146</v>
       </c>
-      <c r="B180" s="5"/>
-      <c r="C180" s="5">
+      <c r="B180" s="16">
+        <v>4882600</v>
+      </c>
+      <c r="C180" s="4">
         <v>11.75</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>44147</v>
       </c>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5">
+      <c r="B181" s="16">
+        <v>4353300</v>
+      </c>
+      <c r="C181" s="4">
         <v>11.13</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>44148</v>
       </c>
-      <c r="B182" s="5"/>
-      <c r="C182" s="5">
+      <c r="B182" s="16">
+        <v>3535900</v>
+      </c>
+      <c r="C182" s="4">
         <v>11.01</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>44151</v>
       </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5">
+      <c r="B183" s="16">
+        <v>9774800</v>
+      </c>
+      <c r="C183" s="4">
         <v>12.06</v>
       </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>44152</v>
       </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5">
+      <c r="B184" s="16">
+        <v>6678200</v>
+      </c>
+      <c r="C184" s="4">
         <v>11.63</v>
       </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>44153</v>
       </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5">
+      <c r="B185" s="16">
+        <v>3169200</v>
+      </c>
+      <c r="C185" s="4">
         <v>11.57</v>
       </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>44154</v>
       </c>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5">
+      <c r="B186" s="16">
+        <v>11787600</v>
+      </c>
+      <c r="C186" s="4">
         <v>12.46</v>
       </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>44155</v>
       </c>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5">
+      <c r="B187" s="16">
+        <v>8395400</v>
+      </c>
+      <c r="C187" s="4">
         <v>12.71</v>
       </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>44158</v>
       </c>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5">
+      <c r="B188" s="16">
+        <v>9599100</v>
+      </c>
+      <c r="C188" s="4">
         <v>13.9</v>
       </c>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>44159</v>
       </c>
-      <c r="B189" s="5"/>
-      <c r="C189" s="5">
+      <c r="B189" s="16">
+        <v>7183200</v>
+      </c>
+      <c r="C189" s="4">
         <v>13.67</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>44160</v>
       </c>
-      <c r="B190" s="5"/>
-      <c r="C190" s="5">
+      <c r="B190" s="16">
+        <v>8860100</v>
+      </c>
+      <c r="C190" s="4">
         <v>14.75</v>
       </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>44162</v>
       </c>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5">
+      <c r="B191" s="16">
+        <v>12504200</v>
+      </c>
+      <c r="C191" s="4">
         <v>16.079999999999998</v>
       </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>44165</v>
       </c>
-      <c r="B192" s="5"/>
-      <c r="C192" s="5">
+      <c r="B192" s="16">
+        <v>31983500</v>
+      </c>
+      <c r="C192" s="4">
         <v>16.559999999999999</v>
       </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="5"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>44166</v>
       </c>
-      <c r="B193" s="5"/>
-      <c r="C193" s="5">
+      <c r="B193" s="16">
+        <v>12666000</v>
+      </c>
+      <c r="C193" s="4">
         <v>15.8</v>
       </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="3">
         <v>44167</v>
       </c>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5">
+      <c r="B194" s="16">
+        <v>7883400</v>
+      </c>
+      <c r="C194" s="4">
         <v>16.579999999999998</v>
       </c>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="3">
         <v>44168</v>
       </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5">
+      <c r="B195" s="16">
+        <v>6295000</v>
+      </c>
+      <c r="C195" s="4">
         <v>16.12</v>
       </c>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="3">
         <v>44169</v>
       </c>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5">
+      <c r="B196" s="16">
+        <v>8972700</v>
+      </c>
+      <c r="C196" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="3">
         <v>44172</v>
       </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5">
+      <c r="B197" s="16">
+        <v>7386300</v>
+      </c>
+      <c r="C197" s="4">
         <v>16.350000000000001</v>
       </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="3">
         <v>44173</v>
       </c>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5">
+      <c r="B198" s="16">
+        <v>16120200</v>
+      </c>
+      <c r="C198" s="4">
         <v>16.940000000000001</v>
       </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
-      <c r="G198" s="5"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="8">
+        <v>80</v>
+      </c>
+      <c r="F198" s="8">
+        <v>1</v>
+      </c>
+      <c r="G198" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="3">
         <v>44174</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5">
+      <c r="B199" s="16">
+        <v>24357900</v>
+      </c>
+      <c r="C199" s="4">
         <v>13.66</v>
       </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="8">
+        <v>45</v>
+      </c>
+      <c r="F199" s="8">
+        <v>1</v>
+      </c>
+      <c r="G199" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="3">
         <v>44175</v>
       </c>
-      <c r="B200" s="5"/>
-      <c r="C200" s="5">
+      <c r="B200" s="16">
+        <v>7558900</v>
+      </c>
+      <c r="C200" s="4">
         <v>14.12</v>
       </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="8">
+        <v>19</v>
+      </c>
+      <c r="F200" s="8">
+        <v>1</v>
+      </c>
+      <c r="G200" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="3">
         <v>44176</v>
       </c>
-      <c r="B201" s="5"/>
-      <c r="C201" s="5">
+      <c r="B201" s="16">
+        <v>7496900</v>
+      </c>
+      <c r="C201" s="4">
         <v>13.31</v>
       </c>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
-      <c r="F201" s="5"/>
-      <c r="G201" s="5"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="8">
+        <v>21</v>
+      </c>
+      <c r="F201" s="8">
+        <v>1</v>
+      </c>
+      <c r="G201" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="3">
         <v>44179</v>
       </c>
-      <c r="B202" s="5"/>
-      <c r="C202" s="5">
+      <c r="B202" s="16">
+        <v>10007100</v>
+      </c>
+      <c r="C202" s="4">
         <v>12.72</v>
       </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="8">
+        <v>29</v>
+      </c>
+      <c r="F202" s="8">
+        <v>1</v>
+      </c>
+      <c r="G202" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="3">
         <v>44180</v>
       </c>
-      <c r="B203" s="5"/>
-      <c r="C203" s="5">
+      <c r="B203" s="16">
+        <v>8192900</v>
+      </c>
+      <c r="C203" s="4">
         <v>13.85</v>
       </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="8">
+        <v>25</v>
+      </c>
+      <c r="F203" s="8">
+        <v>1</v>
+      </c>
+      <c r="G203" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="3">
         <v>44181</v>
       </c>
-      <c r="B204" s="5"/>
-      <c r="C204" s="5">
+      <c r="B204" s="16">
+        <v>5865100</v>
+      </c>
+      <c r="C204" s="4">
         <v>13.85</v>
       </c>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5"/>
-      <c r="G204" s="5"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="8">
+        <v>9</v>
+      </c>
+      <c r="F204" s="8">
+        <v>5.7777777779999999</v>
+      </c>
+      <c r="G204" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="3">
         <v>44182</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5">
+      <c r="B205" s="16">
+        <v>8194900</v>
+      </c>
+      <c r="C205" s="4">
         <v>14.83</v>
       </c>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="8">
+        <v>16</v>
+      </c>
+      <c r="F205" s="8">
+        <v>22.625</v>
+      </c>
+      <c r="G205" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="3">
         <v>44183</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5">
+      <c r="B206" s="16">
+        <v>16618800</v>
+      </c>
+      <c r="C206" s="4">
         <v>15.63</v>
       </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="8">
+        <v>13</v>
+      </c>
+      <c r="F206" s="8">
+        <v>479.15384619999998</v>
+      </c>
+      <c r="G206" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="3">
         <v>44186</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5">
+      <c r="B207" s="16">
+        <v>9876100</v>
+      </c>
+      <c r="C207" s="4">
         <v>15.53</v>
       </c>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
-      <c r="G207" s="5"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="8">
+        <v>26</v>
+      </c>
+      <c r="F207" s="8">
+        <v>1</v>
+      </c>
+      <c r="G207" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="3">
         <v>44187</v>
       </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5">
+      <c r="B208" s="16">
+        <v>30652700</v>
+      </c>
+      <c r="C208" s="4">
         <v>19.46</v>
       </c>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="8">
+        <v>96</v>
+      </c>
+      <c r="F208" s="8">
+        <v>1.0104166670000001</v>
+      </c>
+      <c r="G208" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="3">
         <v>44188</v>
       </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5">
+      <c r="B209" s="16">
+        <v>25830300</v>
+      </c>
+      <c r="C209" s="4">
         <v>20.57</v>
       </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="8">
+        <v>98</v>
+      </c>
+      <c r="F209" s="8">
+        <v>1</v>
+      </c>
+      <c r="G209" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="3">
         <v>44189</v>
       </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5">
+      <c r="B210" s="16">
+        <v>6262200</v>
+      </c>
+      <c r="C210" s="4">
         <v>20.149999999999999</v>
       </c>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="8">
+        <v>43</v>
+      </c>
+      <c r="F210" s="8">
+        <v>1</v>
+      </c>
+      <c r="G210" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="3">
         <v>44193</v>
       </c>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5">
+      <c r="B211" s="16">
+        <v>8965900</v>
+      </c>
+      <c r="C211" s="4">
         <v>20.99</v>
       </c>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
-      <c r="F211" s="5"/>
-      <c r="G211" s="5"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="8">
+        <v>95</v>
+      </c>
+      <c r="F211" s="8">
+        <v>1</v>
+      </c>
+      <c r="G211" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="4">
+      <c r="A212" s="3">
         <v>44194</v>
       </c>
-      <c r="B212" s="5"/>
-      <c r="C212" s="5">
+      <c r="B212" s="16">
+        <v>9241400</v>
+      </c>
+      <c r="C212" s="4">
         <v>19.38</v>
       </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="8">
+        <v>74</v>
+      </c>
+      <c r="F212" s="8">
+        <v>1</v>
+      </c>
+      <c r="G212" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="4">
+      <c r="A213" s="3">
         <v>44195</v>
       </c>
-      <c r="B213" s="5"/>
-      <c r="C213" s="5">
+      <c r="B213" s="16">
+        <v>5934400</v>
+      </c>
+      <c r="C213" s="4">
         <v>19.260000000000002</v>
       </c>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="8">
+        <v>65</v>
+      </c>
+      <c r="F213" s="8">
+        <v>1</v>
+      </c>
+      <c r="G213" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="4">
+      <c r="A214" s="3">
         <v>44196</v>
       </c>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5">
+      <c r="B214" s="16">
+        <v>6922700</v>
+      </c>
+      <c r="C214" s="4">
         <v>18.84</v>
       </c>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="8">
+        <v>106</v>
+      </c>
+      <c r="F214" s="8">
+        <v>1.0094339619999999</v>
+      </c>
+      <c r="G214" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="4">
+      <c r="A215" s="3">
         <v>44200</v>
       </c>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5">
+      <c r="B215" s="16">
+        <v>10022500</v>
+      </c>
+      <c r="C215" s="4">
         <v>17.25</v>
       </c>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="8">
+        <v>78</v>
+      </c>
+      <c r="F215" s="8">
+        <v>1</v>
+      </c>
+      <c r="G215" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="4">
+      <c r="A216" s="3">
         <v>44201</v>
       </c>
-      <c r="B216" s="5"/>
-      <c r="C216" s="5">
+      <c r="B216" s="16">
+        <v>4961500</v>
+      </c>
+      <c r="C216" s="4">
         <v>17.37</v>
       </c>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="8">
+        <v>76</v>
+      </c>
+      <c r="F216" s="8">
+        <v>1</v>
+      </c>
+      <c r="G216" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="4">
+      <c r="A217" s="3">
         <v>44202</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5">
+      <c r="B217" s="16">
+        <v>6056200</v>
+      </c>
+      <c r="C217" s="4">
         <v>18.36</v>
       </c>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="8">
+        <v>47</v>
+      </c>
+      <c r="F217" s="8">
+        <v>3.4255319150000001</v>
+      </c>
+      <c r="G217" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="4">
+      <c r="A218" s="3">
         <v>44203</v>
       </c>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5">
+      <c r="B218" s="16">
+        <v>6129300</v>
+      </c>
+      <c r="C218" s="4">
         <v>18.079999999999998</v>
       </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="8">
+        <v>20</v>
+      </c>
+      <c r="F218" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="G218" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="4">
+      <c r="A219" s="3">
         <v>44204</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5">
+      <c r="B219" s="16">
+        <v>6482000</v>
+      </c>
+      <c r="C219" s="4">
         <v>17.690000000000001</v>
       </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="8">
+        <v>43</v>
+      </c>
+      <c r="F219" s="8">
+        <v>2.2325581400000001</v>
+      </c>
+      <c r="G219" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="4">
+      <c r="A220" s="3">
         <v>44207</v>
       </c>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5">
+      <c r="B220" s="16">
+        <v>14927600</v>
+      </c>
+      <c r="C220" s="4">
         <v>19.940000000000001</v>
       </c>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
-      <c r="G220" s="5"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="8">
+        <v>74</v>
+      </c>
+      <c r="F220" s="8">
+        <v>4.3783783779999998</v>
+      </c>
+      <c r="G220" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="4">
+      <c r="A221" s="3">
         <v>44208</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5">
+      <c r="B221" s="16">
+        <v>7060700</v>
+      </c>
+      <c r="C221" s="4">
         <v>19.95</v>
       </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="5"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="8">
+        <v>44</v>
+      </c>
+      <c r="F221" s="8">
+        <v>5.1136363640000004</v>
+      </c>
+      <c r="G221" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="4">
+      <c r="A222" s="3">
         <v>44209</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5">
+      <c r="B222" s="16">
+        <v>144501700</v>
+      </c>
+      <c r="C222" s="4">
         <v>31.4</v>
       </c>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="8">
+        <v>459</v>
+      </c>
+      <c r="F222" s="8">
+        <v>11.784313729999999</v>
+      </c>
+      <c r="G222" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="4">
+      <c r="A223" s="3">
         <v>44210</v>
       </c>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5">
+      <c r="B223" s="16">
+        <v>93717400</v>
+      </c>
+      <c r="C223" s="4">
         <v>39.909999999999997</v>
       </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="8">
+        <v>464</v>
+      </c>
+      <c r="F223" s="8">
+        <v>7.698275862</v>
+      </c>
+      <c r="G223" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="4">
+      <c r="A224" s="3">
         <v>44211</v>
       </c>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5">
+      <c r="B224" s="16">
+        <v>46866400</v>
+      </c>
+      <c r="C224" s="4">
         <v>35.5</v>
       </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="8">
+        <v>462</v>
+      </c>
+      <c r="F224" s="8">
+        <v>9.7510822509999997</v>
+      </c>
+      <c r="G224" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+      <c r="A225" s="3">
         <v>44215</v>
       </c>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5">
+      <c r="B225" s="16">
+        <v>74721900</v>
+      </c>
+      <c r="C225" s="4">
         <v>39.36</v>
       </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="8">
+        <v>457</v>
+      </c>
+      <c r="F225" s="8">
+        <v>7.9649890589999996</v>
+      </c>
+      <c r="G225" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="4">
+      <c r="A226" s="3">
         <v>44216</v>
       </c>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5">
+      <c r="B226" s="16">
+        <v>33471800</v>
+      </c>
+      <c r="C226" s="4">
         <v>39.119999999999997</v>
       </c>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="8">
+        <v>306</v>
+      </c>
+      <c r="F226" s="8">
+        <v>5.5718954250000001</v>
+      </c>
+      <c r="G226" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="4">
+      <c r="A227" s="3">
         <v>44217</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5">
+      <c r="B227" s="16">
+        <v>57079800</v>
+      </c>
+      <c r="C227" s="4">
         <v>43.03</v>
       </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="8">
+        <v>479</v>
+      </c>
+      <c r="F227" s="8">
+        <v>2.5845511480000001</v>
+      </c>
+      <c r="G227" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="4">
+      <c r="A228" s="3">
         <v>44218</v>
       </c>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5">
+      <c r="B228" s="16">
+        <v>197157900</v>
+      </c>
+      <c r="C228" s="4">
         <v>65.010000000000005</v>
       </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="8">
+        <v>1213</v>
+      </c>
+      <c r="F228" s="8">
+        <v>1.0403957130000001</v>
+      </c>
+      <c r="G228" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="4">
+      <c r="A229" s="3">
         <v>44221</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5">
+      <c r="B229" s="16">
+        <v>177874000</v>
+      </c>
+      <c r="C229" s="4">
         <v>76.790000000000006</v>
       </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="8">
+        <v>2296</v>
+      </c>
+      <c r="F229" s="8">
+        <v>1.0452961670000001</v>
+      </c>
+      <c r="G229" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="4">
+      <c r="A230" s="3">
         <v>44222</v>
       </c>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5">
+      <c r="B230" s="16">
+        <v>178588000</v>
+      </c>
+      <c r="C230" s="4">
         <v>147.97999999999999</v>
       </c>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="8">
+        <v>677</v>
+      </c>
+      <c r="F230" s="8">
+        <v>1.0251107829999999</v>
+      </c>
+      <c r="G230" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="4">
+      <c r="A231" s="3">
         <v>44223</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5">
+      <c r="B231" s="16">
+        <v>93396700</v>
+      </c>
+      <c r="C231" s="4">
         <v>347.51</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="8">
+        <v>5861</v>
+      </c>
+      <c r="F231" s="8">
+        <v>15.672752089999999</v>
+      </c>
+      <c r="G231" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="3">
         <v>44224</v>
       </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5">
+      <c r="B232" s="16">
+        <v>58815800</v>
+      </c>
+      <c r="C232" s="4">
         <v>193.6</v>
       </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="8">
+        <v>11179</v>
+      </c>
+      <c r="F232" s="8">
+        <v>2.6446909380000001</v>
+      </c>
+      <c r="G232" s="8">
+        <v>15</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="4">
+      <c r="A233" s="3">
         <v>44225</v>
       </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5">
+      <c r="B233" s="16">
+        <v>50259200</v>
+      </c>
+      <c r="C233" s="4">
         <v>325</v>
       </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="8">
+        <v>4510</v>
+      </c>
+      <c r="F233" s="8">
+        <v>1.0152993349999999</v>
+      </c>
+      <c r="G233" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="4">
+      <c r="A234" s="3">
         <v>44228</v>
       </c>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5">
+      <c r="B234" s="16">
+        <v>37382200</v>
+      </c>
+      <c r="C234" s="4">
         <v>225</v>
       </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="8">
+        <v>5228</v>
+      </c>
+      <c r="F234" s="8">
+        <v>227.8716526</v>
+      </c>
+      <c r="G234" s="8">
+        <v>166</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="4">
+      <c r="A235" s="3">
         <v>44229</v>
       </c>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5">
+      <c r="B235" s="16">
+        <v>78183100</v>
+      </c>
+      <c r="C235" s="4">
         <v>90</v>
       </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="8">
+        <v>5554</v>
+      </c>
+      <c r="F235" s="8">
+        <v>175.2083183</v>
+      </c>
+      <c r="G235" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="4">
+      <c r="A236" s="3">
         <v>44230</v>
       </c>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5">
+      <c r="B236" s="16">
+        <v>42698500</v>
+      </c>
+      <c r="C236" s="4">
         <v>92.41</v>
       </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="8">
+        <v>1824</v>
+      </c>
+      <c r="F236" s="8">
+        <v>231.7330044</v>
+      </c>
+      <c r="G236" s="8">
+        <v>103</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="4">
+      <c r="A237" s="3">
         <v>44231</v>
       </c>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5">
+      <c r="B237" s="16">
+        <v>62427300</v>
+      </c>
+      <c r="C237" s="4">
         <v>53.5</v>
       </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F237" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G237" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="4">
+      <c r="A238" s="3">
         <v>44232</v>
       </c>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5">
+      <c r="B238" s="16">
+        <v>80886300</v>
+      </c>
+      <c r="C238" s="4">
         <v>63.77</v>
       </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F238" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G238" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="4">
+      <c r="A239" s="3">
         <v>44235</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5">
+      <c r="B239" s="16">
+        <v>25687300</v>
+      </c>
+      <c r="C239" s="4">
         <v>60</v>
       </c>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F239" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G239" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="4">
+      <c r="A240" s="3">
         <v>44236</v>
       </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5">
+      <c r="B240" s="16">
+        <v>26843100</v>
+      </c>
+      <c r="C240" s="4">
         <v>50.31</v>
       </c>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F240" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G240" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="4">
+      <c r="A241" s="3">
         <v>44237</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5">
+      <c r="B241" s="16">
+        <v>36455000</v>
+      </c>
+      <c r="C241" s="4">
         <v>51.2</v>
       </c>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F241" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G241" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="4">
+      <c r="A242" s="3">
         <v>44238</v>
       </c>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5">
+      <c r="B242" s="16">
+        <v>12997400</v>
+      </c>
+      <c r="C242" s="4">
         <v>51.1</v>
       </c>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="5"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F242" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G242" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="4">
+      <c r="A243" s="3">
         <v>44239</v>
       </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5">
+      <c r="B243" s="16">
+        <v>14498000</v>
+      </c>
+      <c r="C243" s="4">
         <v>52.4</v>
       </c>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="5"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F243" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G243" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="4">
+      <c r="A244" s="3">
         <v>44243</v>
       </c>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5">
+      <c r="B244" s="16">
+        <v>8175000</v>
+      </c>
+      <c r="C244" s="4">
         <v>49.51</v>
       </c>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="5"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F244" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G244" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="4">
+      <c r="A245" s="3">
         <v>44244</v>
       </c>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5">
+      <c r="B245" s="16">
+        <v>9186800</v>
+      </c>
+      <c r="C245" s="4">
         <v>45.94</v>
       </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F245" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G245" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="4">
+      <c r="A246" s="3">
         <v>44245</v>
       </c>
-      <c r="B246" s="5"/>
-      <c r="C246" s="5">
+      <c r="B246" s="16">
+        <v>23990600</v>
+      </c>
+      <c r="C246" s="4">
         <v>40.69</v>
       </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F246" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G246" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="4">
+      <c r="A247" s="3">
         <v>44246</v>
       </c>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5">
+      <c r="B247" s="16">
+        <v>14828200</v>
+      </c>
+      <c r="C247" s="4">
         <v>40.590000000000003</v>
       </c>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F247" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G247" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="4">
+      <c r="A248" s="3">
         <v>44249</v>
       </c>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5">
+      <c r="B248" s="16">
+        <v>19476000</v>
+      </c>
+      <c r="C248" s="4">
         <v>46</v>
       </c>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F248" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G248" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="4">
+      <c r="A249" s="3">
         <v>44250</v>
       </c>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5">
+      <c r="B249" s="16">
+        <v>7565200</v>
+      </c>
+      <c r="C249" s="4">
         <v>44.97</v>
       </c>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F249" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G249" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="4">
+      <c r="A250" s="3">
         <v>44251</v>
       </c>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5">
+      <c r="B250" s="16">
+        <v>83111700</v>
+      </c>
+      <c r="C250" s="4">
         <v>91.71</v>
       </c>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F250" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G250" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="4">
+      <c r="A251" s="3">
         <v>44252</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5">
+      <c r="B251" s="16">
+        <v>150308800</v>
+      </c>
+      <c r="C251" s="4">
         <v>108.73</v>
       </c>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F251" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G251" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="4">
+      <c r="A252" s="3">
         <v>44253</v>
       </c>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5">
+      <c r="B252" s="16">
+        <v>91963000</v>
+      </c>
+      <c r="C252" s="4">
         <v>101.74</v>
       </c>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="5"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F252" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G252" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="4">
+      <c r="A253" s="3">
         <v>44256</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5">
+      <c r="B253" s="16">
+        <v>49597300</v>
+      </c>
+      <c r="C253" s="4">
         <v>120.4</v>
       </c>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="5"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F253" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G253" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="4">
+      <c r="A254" s="3">
         <v>44257</v>
       </c>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5">
+      <c r="B254" s="16">
+        <v>33640400</v>
+      </c>
+      <c r="C254" s="4">
         <v>118.18</v>
       </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F254" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G254" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="4">
+      <c r="A255" s="3">
         <v>44258</v>
       </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5">
+      <c r="B255" s="16">
+        <v>19173700</v>
+      </c>
+      <c r="C255" s="4">
         <v>124.18</v>
       </c>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F255" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G255" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="4">
+      <c r="A256" s="3">
         <v>44259</v>
       </c>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5">
+      <c r="B256" s="16">
+        <v>32473600</v>
+      </c>
+      <c r="C256" s="4">
         <v>132.35</v>
       </c>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="5"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F256" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G256" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="4">
+      <c r="A257" s="3">
         <v>44260</v>
       </c>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="5"/>
+      <c r="B257" s="16"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E257" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F257" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G257" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="4">
+      <c r="A258" s="3">
         <v>44263</v>
       </c>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="5"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E258" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F258" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G258" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="4">
+      <c r="A259" s="3">
         <v>44264</v>
       </c>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E259" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F259" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G259" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="4">
+      <c r="A260" s="3">
         <v>44265</v>
       </c>
-      <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
+      <c r="B260" s="16"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E260" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F260" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G260" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="4">
+      <c r="A261" s="3">
         <v>44266</v>
       </c>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="5"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E261" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F261" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G261" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="4">
+      <c r="A262" s="3">
         <v>44267</v>
       </c>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="5"/>
+      <c r="B262" s="16"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E262" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F262" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G262" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="4">
+      <c r="A263" s="3">
         <v>44270</v>
       </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E263" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F263" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G263" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="4">
+      <c r="A264" s="3">
         <v>44271</v>
       </c>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
+      <c r="B264" s="16"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E264" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F264" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G264" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="4">
+      <c r="A265" s="3">
         <v>44272</v>
       </c>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E265" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F265" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G265" s="14">
+        <v>103</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
+      <c r="A266" s="3">
         <v>44273</v>
       </c>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
+      <c r="B266" s="16"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="15">
+        <v>132.35</v>
+      </c>
+      <c r="E266" s="14">
+        <v>1824</v>
+      </c>
+      <c r="F266" s="14">
+        <v>231.7330044</v>
+      </c>
+      <c r="G266" s="14">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:G4" xr:uid="{2C0C5ED8-4F94-4359-BF8F-C4C11D0668FD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/carl/wireframe_GME-CombinedDF_2020-03-05_2021-03-04.xlsx
+++ b/carl/wireframe_GME-CombinedDF_2020-03-05_2021-03-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffm\GitHub\FinalProject-Stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffm\GitHub\FinalProject-Stock\carl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D740BA88-9FFF-44AF-968F-B97AEA6CC72F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5568190-591D-4E27-99BB-9C7DC27C037E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wireframe_GME-CombinedDF_2020-0" sheetId="1" r:id="rId1"/>
@@ -701,14 +701,14 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -781,9 +781,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>511175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>225425</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,7 +857,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>285011</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -911,9 +911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>104313</xdr:rowOff>
+      <xdr:rowOff>110663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1460,14 +1460,15 @@
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
     <col min="6" max="6" width="12.140625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
@@ -1526,7 +1527,7 @@
       <c r="A5" s="7">
         <v>43895</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>3599400</v>
       </c>
       <c r="C5" s="8">
@@ -1541,7 +1542,7 @@
       <c r="A6" s="3">
         <v>43896</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2096800</v>
       </c>
       <c r="C6" s="4">
@@ -1556,7 +1557,7 @@
       <c r="A7" s="3">
         <v>43899</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>2732000</v>
       </c>
       <c r="C7" s="4">
@@ -1571,7 +1572,7 @@
       <c r="A8" s="3">
         <v>43900</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>4863200</v>
       </c>
       <c r="C8" s="4">
@@ -1586,7 +1587,7 @@
       <c r="A9" s="3">
         <v>43901</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>4414100</v>
       </c>
       <c r="C9" s="4">
@@ -1601,7 +1602,7 @@
       <c r="A10" s="3">
         <v>43902</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>5123400</v>
       </c>
       <c r="C10" s="4">
@@ -1616,7 +1617,7 @@
       <c r="A11" s="3">
         <v>43903</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>5787200</v>
       </c>
       <c r="C11" s="4">
@@ -1631,7 +1632,7 @@
       <c r="A12" s="3">
         <v>43906</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>4866700</v>
       </c>
       <c r="C12" s="4">
@@ -1646,7 +1647,7 @@
       <c r="A13" s="3">
         <v>43907</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>3562200</v>
       </c>
       <c r="C13" s="4">
@@ -1661,7 +1662,7 @@
       <c r="A14" s="3">
         <v>43908</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>3651700</v>
       </c>
       <c r="C14" s="4">
@@ -1676,7 +1677,7 @@
       <c r="A15" s="3">
         <v>43909</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>5039500</v>
       </c>
       <c r="C15" s="4">
@@ -1691,7 +1692,7 @@
       <c r="A16" s="3">
         <v>43910</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>7722200</v>
       </c>
       <c r="C16" s="4">
@@ -1706,7 +1707,7 @@
       <c r="A17" s="3">
         <v>43913</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>6009800</v>
       </c>
       <c r="C17" s="4">
@@ -1721,7 +1722,7 @@
       <c r="A18" s="3">
         <v>43914</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>6805600</v>
       </c>
       <c r="C18" s="4">
@@ -1736,7 +1737,7 @@
       <c r="A19" s="3">
         <v>43915</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>3592100</v>
       </c>
       <c r="C19" s="4">
@@ -1751,7 +1752,7 @@
       <c r="A20" s="3">
         <v>43916</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>6185700</v>
       </c>
       <c r="C20" s="4">
@@ -1766,7 +1767,7 @@
       <c r="A21" s="3">
         <v>43917</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>7024800</v>
       </c>
       <c r="C21" s="4">
@@ -1781,7 +1782,7 @@
       <c r="A22" s="3">
         <v>43920</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>3350600</v>
       </c>
       <c r="C22" s="4">
@@ -1796,7 +1797,7 @@
       <c r="A23" s="3">
         <v>43921</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>2300900</v>
       </c>
       <c r="C23" s="4">
@@ -1811,7 +1812,7 @@
       <c r="A24" s="3">
         <v>43922</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>4568700</v>
       </c>
       <c r="C24" s="4">
@@ -1826,7 +1827,7 @@
       <c r="A25" s="3">
         <v>43923</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>4064300</v>
       </c>
       <c r="C25" s="4">
@@ -1841,7 +1842,7 @@
       <c r="A26" s="3">
         <v>43924</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>3830400</v>
       </c>
       <c r="C26" s="4">
@@ -1856,7 +1857,7 @@
       <c r="A27" s="3">
         <v>43927</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>3340500</v>
       </c>
       <c r="C27" s="4">
@@ -1871,7 +1872,7 @@
       <c r="A28" s="3">
         <v>43928</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>2836900</v>
       </c>
       <c r="C28" s="4">
@@ -1886,7 +1887,7 @@
       <c r="A29" s="3">
         <v>43929</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>2884500</v>
       </c>
       <c r="C29" s="4">
@@ -1901,7 +1902,7 @@
       <c r="A30" s="3">
         <v>43930</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>5908600</v>
       </c>
       <c r="C30" s="4">
@@ -1916,7 +1917,7 @@
       <c r="A31" s="3">
         <v>43934</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>6844500</v>
       </c>
       <c r="C31" s="4">
@@ -1931,7 +1932,7 @@
       <c r="A32" s="3">
         <v>43935</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>13506600</v>
       </c>
       <c r="C32" s="4">
@@ -1946,7 +1947,7 @@
       <c r="A33" s="3">
         <v>43936</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>7499900</v>
       </c>
       <c r="C33" s="4">
@@ -1961,7 +1962,7 @@
       <c r="A34" s="3">
         <v>43937</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>3371900</v>
       </c>
       <c r="C34" s="4">
@@ -1976,7 +1977,7 @@
       <c r="A35" s="3">
         <v>43938</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>5653200</v>
       </c>
       <c r="C35" s="4">
@@ -1991,7 +1992,7 @@
       <c r="A36" s="3">
         <v>43941</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>6085000</v>
       </c>
       <c r="C36" s="4">
@@ -2006,7 +2007,7 @@
       <c r="A37" s="3">
         <v>43942</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>4142100</v>
       </c>
       <c r="C37" s="4">
@@ -2021,7 +2022,7 @@
       <c r="A38" s="3">
         <v>43943</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>2677800</v>
       </c>
       <c r="C38" s="4">
@@ -2036,7 +2037,7 @@
       <c r="A39" s="3">
         <v>43944</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <v>2265900</v>
       </c>
       <c r="C39" s="4">
@@ -2051,7 +2052,7 @@
       <c r="A40" s="3">
         <v>43945</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>2236200</v>
       </c>
       <c r="C40" s="4">
@@ -2066,7 +2067,7 @@
       <c r="A41" s="3">
         <v>43948</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>7275100</v>
       </c>
       <c r="C41" s="4">
@@ -2081,7 +2082,7 @@
       <c r="A42" s="3">
         <v>43949</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>5200200</v>
       </c>
       <c r="C42" s="4">
@@ -2096,7 +2097,7 @@
       <c r="A43" s="3">
         <v>43950</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>3369600</v>
       </c>
       <c r="C43" s="4">
@@ -2111,7 +2112,7 @@
       <c r="A44" s="3">
         <v>43951</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="15">
         <v>2173300</v>
       </c>
       <c r="C44" s="4">
@@ -2126,7 +2127,7 @@
       <c r="A45" s="3">
         <v>43952</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <v>4005600</v>
       </c>
       <c r="C45" s="4">
@@ -2141,7 +2142,7 @@
       <c r="A46" s="3">
         <v>43955</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <v>4068100</v>
       </c>
       <c r="C46" s="4">
@@ -2156,7 +2157,7 @@
       <c r="A47" s="3">
         <v>43956</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="15">
         <v>2105900</v>
       </c>
       <c r="C47" s="4">
@@ -2171,7 +2172,7 @@
       <c r="A48" s="3">
         <v>43957</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <v>3369600</v>
       </c>
       <c r="C48" s="4">
@@ -2186,7 +2187,7 @@
       <c r="A49" s="3">
         <v>43958</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>2500800</v>
       </c>
       <c r="C49" s="4">
@@ -2201,7 +2202,7 @@
       <c r="A50" s="3">
         <v>43959</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>2353700</v>
       </c>
       <c r="C50" s="4">
@@ -2216,7 +2217,7 @@
       <c r="A51" s="3">
         <v>43962</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>1699200</v>
       </c>
       <c r="C51" s="4">
@@ -2231,7 +2232,7 @@
       <c r="A52" s="3">
         <v>43963</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>2639200</v>
       </c>
       <c r="C52" s="4">
@@ -2246,7 +2247,7 @@
       <c r="A53" s="3">
         <v>43964</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="15">
         <v>2882900</v>
       </c>
       <c r="C53" s="4">
@@ -2261,7 +2262,7 @@
       <c r="A54" s="3">
         <v>43965</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>2004900</v>
       </c>
       <c r="C54" s="4">
@@ -2276,7 +2277,7 @@
       <c r="A55" s="3">
         <v>43966</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>1940600</v>
       </c>
       <c r="C55" s="4">
@@ -2291,7 +2292,7 @@
       <c r="A56" s="3">
         <v>43969</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>2371700</v>
       </c>
       <c r="C56" s="4">
@@ -2306,7 +2307,7 @@
       <c r="A57" s="3">
         <v>43970</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>1840700</v>
       </c>
       <c r="C57" s="4">
@@ -2321,7 +2322,7 @@
       <c r="A58" s="3">
         <v>43971</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>2543600</v>
       </c>
       <c r="C58" s="4">
@@ -2336,7 +2337,7 @@
       <c r="A59" s="3">
         <v>43972</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>1971900</v>
       </c>
       <c r="C59" s="4">
@@ -2351,7 +2352,7 @@
       <c r="A60" s="3">
         <v>43973</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>2379900</v>
       </c>
       <c r="C60" s="4">
@@ -2366,7 +2367,7 @@
       <c r="A61" s="3">
         <v>43977</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>3545700</v>
       </c>
       <c r="C61" s="4">
@@ -2381,7 +2382,7 @@
       <c r="A62" s="3">
         <v>43978</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>3146600</v>
       </c>
       <c r="C62" s="4">
@@ -2396,7 +2397,7 @@
       <c r="A63" s="3">
         <v>43979</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>2183900</v>
       </c>
       <c r="C63" s="4">
@@ -2411,7 +2412,7 @@
       <c r="A64" s="3">
         <v>43980</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>3973500</v>
       </c>
       <c r="C64" s="4">
@@ -2426,7 +2427,7 @@
       <c r="A65" s="3">
         <v>43983</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="15">
         <v>2611600</v>
       </c>
       <c r="C65" s="4">
@@ -2441,7 +2442,7 @@
       <c r="A66" s="3">
         <v>43984</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>2369400</v>
       </c>
       <c r="C66" s="4">
@@ -2456,7 +2457,7 @@
       <c r="A67" s="3">
         <v>43985</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>3037400</v>
       </c>
       <c r="C67" s="4">
@@ -2471,7 +2472,7 @@
       <c r="A68" s="3">
         <v>43986</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>3514300</v>
       </c>
       <c r="C68" s="4">
@@ -2486,7 +2487,7 @@
       <c r="A69" s="3">
         <v>43987</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="15">
         <v>6274400</v>
       </c>
       <c r="C69" s="4">
@@ -2501,7 +2502,7 @@
       <c r="A70" s="3">
         <v>43990</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>10133700</v>
       </c>
       <c r="C70" s="4">
@@ -2516,7 +2517,7 @@
       <c r="A71" s="3">
         <v>43991</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>8073400</v>
       </c>
       <c r="C71" s="4">
@@ -2531,7 +2532,7 @@
       <c r="A72" s="3">
         <v>43992</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>10606400</v>
       </c>
       <c r="C72" s="4">
@@ -2546,7 +2547,7 @@
       <c r="A73" s="3">
         <v>43993</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>6236000</v>
       </c>
       <c r="C73" s="4">
@@ -2561,7 +2562,7 @@
       <c r="A74" s="3">
         <v>43994</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>4378200</v>
       </c>
       <c r="C74" s="4">
@@ -2576,7 +2577,7 @@
       <c r="A75" s="3">
         <v>43997</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>3909000</v>
       </c>
       <c r="C75" s="4">
@@ -2591,7 +2592,7 @@
       <c r="A76" s="3">
         <v>43998</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>3121300</v>
       </c>
       <c r="C76" s="4">
@@ -2606,7 +2607,7 @@
       <c r="A77" s="3">
         <v>43999</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>3593500</v>
       </c>
       <c r="C77" s="4">
@@ -2621,7 +2622,7 @@
       <c r="A78" s="3">
         <v>44000</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>3423800</v>
       </c>
       <c r="C78" s="4">
@@ -2636,7 +2637,7 @@
       <c r="A79" s="3">
         <v>44001</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>7366600</v>
       </c>
       <c r="C79" s="4">
@@ -2651,7 +2652,7 @@
       <c r="A80" s="3">
         <v>44004</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>3178900</v>
       </c>
       <c r="C80" s="4">
@@ -2666,7 +2667,7 @@
       <c r="A81" s="3">
         <v>44005</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <v>3205400</v>
       </c>
       <c r="C81" s="4">
@@ -2681,7 +2682,7 @@
       <c r="A82" s="3">
         <v>44006</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="15">
         <v>2976200</v>
       </c>
       <c r="C82" s="4">
@@ -2696,7 +2697,7 @@
       <c r="A83" s="3">
         <v>44007</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>2450800</v>
       </c>
       <c r="C83" s="4">
@@ -2711,7 +2712,7 @@
       <c r="A84" s="3">
         <v>44008</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="15">
         <v>3801200</v>
       </c>
       <c r="C84" s="4">
@@ -2726,7 +2727,7 @@
       <c r="A85" s="3">
         <v>44011</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>2131200</v>
       </c>
       <c r="C85" s="4">
@@ -2741,7 +2742,7 @@
       <c r="A86" s="3">
         <v>44012</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="15">
         <v>3889000</v>
       </c>
       <c r="C86" s="4">
@@ -2756,7 +2757,7 @@
       <c r="A87" s="3">
         <v>44013</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>2303700</v>
       </c>
       <c r="C87" s="4">
@@ -2771,7 +2772,7 @@
       <c r="A88" s="3">
         <v>44014</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>1887600</v>
       </c>
       <c r="C88" s="4">
@@ -2786,7 +2787,7 @@
       <c r="A89" s="3">
         <v>44018</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>2140900</v>
       </c>
       <c r="C89" s="4">
@@ -2801,7 +2802,7 @@
       <c r="A90" s="3">
         <v>44019</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="15">
         <v>2456600</v>
       </c>
       <c r="C90" s="4">
@@ -2816,7 +2817,7 @@
       <c r="A91" s="3">
         <v>44020</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>2052800</v>
       </c>
       <c r="C91" s="4">
@@ -2831,7 +2832,7 @@
       <c r="A92" s="3">
         <v>44021</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>1992600</v>
       </c>
       <c r="C92" s="4">
@@ -2846,7 +2847,7 @@
       <c r="A93" s="3">
         <v>44022</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>1410800</v>
       </c>
       <c r="C93" s="4">
@@ -2861,7 +2862,7 @@
       <c r="A94" s="3">
         <v>44025</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>4216200</v>
       </c>
       <c r="C94" s="4">
@@ -2876,7 +2877,7 @@
       <c r="A95" s="3">
         <v>44026</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>2261600</v>
       </c>
       <c r="C95" s="4">
@@ -2891,7 +2892,7 @@
       <c r="A96" s="3">
         <v>44027</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <v>1474100</v>
       </c>
       <c r="C96" s="4">
@@ -2906,7 +2907,7 @@
       <c r="A97" s="3">
         <v>44028</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>1330100</v>
       </c>
       <c r="C97" s="4">
@@ -2921,7 +2922,7 @@
       <c r="A98" s="3">
         <v>44029</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="15">
         <v>3065900</v>
       </c>
       <c r="C98" s="4">
@@ -2936,7 +2937,7 @@
       <c r="A99" s="3">
         <v>44032</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>3401100</v>
       </c>
       <c r="C99" s="4">
@@ -2951,7 +2952,7 @@
       <c r="A100" s="3">
         <v>44033</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="15">
         <v>3341000</v>
       </c>
       <c r="C100" s="4">
@@ -2966,7 +2967,7 @@
       <c r="A101" s="3">
         <v>44034</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="15">
         <v>2523500</v>
       </c>
       <c r="C101" s="4">
@@ -2981,7 +2982,7 @@
       <c r="A102" s="3">
         <v>44035</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="15">
         <v>3237200</v>
       </c>
       <c r="C102" s="4">
@@ -2996,7 +2997,7 @@
       <c r="A103" s="3">
         <v>44036</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="15">
         <v>2215900</v>
       </c>
       <c r="C103" s="4">
@@ -3011,7 +3012,7 @@
       <c r="A104" s="3">
         <v>44039</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="15">
         <v>2472700</v>
       </c>
       <c r="C104" s="4">
@@ -3026,7 +3027,7 @@
       <c r="A105" s="3">
         <v>44040</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="15">
         <v>4555400</v>
       </c>
       <c r="C105" s="4">
@@ -3041,7 +3042,7 @@
       <c r="A106" s="3">
         <v>44041</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="15">
         <v>2879600</v>
       </c>
       <c r="C106" s="4">
@@ -3056,7 +3057,7 @@
       <c r="A107" s="3">
         <v>44042</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="15">
         <v>2398500</v>
       </c>
       <c r="C107" s="4">
@@ -3071,7 +3072,7 @@
       <c r="A108" s="3">
         <v>44043</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="15">
         <v>1879400</v>
       </c>
       <c r="C108" s="4">
@@ -3086,7 +3087,7 @@
       <c r="A109" s="3">
         <v>44046</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>2517600</v>
       </c>
       <c r="C109" s="4">
@@ -3101,7 +3102,7 @@
       <c r="A110" s="3">
         <v>44047</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="15">
         <v>10361400</v>
       </c>
       <c r="C110" s="4">
@@ -3116,7 +3117,7 @@
       <c r="A111" s="3">
         <v>44048</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="15">
         <v>4925700</v>
       </c>
       <c r="C111" s="4">
@@ -3131,7 +3132,7 @@
       <c r="A112" s="3">
         <v>44049</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="15">
         <v>1901200</v>
       </c>
       <c r="C112" s="4">
@@ -3146,7 +3147,7 @@
       <c r="A113" s="3">
         <v>44050</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>3341100</v>
       </c>
       <c r="C113" s="4">
@@ -3161,7 +3162,7 @@
       <c r="A114" s="3">
         <v>44053</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="15">
         <v>4561800</v>
       </c>
       <c r="C114" s="4">
@@ -3176,7 +3177,7 @@
       <c r="A115" s="3">
         <v>44054</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="15">
         <v>3138800</v>
       </c>
       <c r="C115" s="4">
@@ -3191,7 +3192,7 @@
       <c r="A116" s="3">
         <v>44055</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>3057600</v>
       </c>
       <c r="C116" s="4">
@@ -3206,7 +3207,7 @@
       <c r="A117" s="3">
         <v>44056</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="15">
         <v>2128300</v>
       </c>
       <c r="C117" s="4">
@@ -3221,7 +3222,7 @@
       <c r="A118" s="3">
         <v>44057</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="15">
         <v>3474400</v>
       </c>
       <c r="C118" s="4">
@@ -3236,7 +3237,7 @@
       <c r="A119" s="3">
         <v>44060</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="15">
         <v>2371000</v>
       </c>
       <c r="C119" s="4">
@@ -3251,7 +3252,7 @@
       <c r="A120" s="3">
         <v>44061</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="15">
         <v>3834400</v>
       </c>
       <c r="C120" s="4">
@@ -3266,7 +3267,7 @@
       <c r="A121" s="3">
         <v>44062</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="15">
         <v>2612600</v>
       </c>
       <c r="C121" s="4">
@@ -3281,7 +3282,7 @@
       <c r="A122" s="3">
         <v>44063</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>2441200</v>
       </c>
       <c r="C122" s="4">
@@ -3296,7 +3297,7 @@
       <c r="A123" s="3">
         <v>44064</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="15">
         <v>10642600</v>
       </c>
       <c r="C123" s="4">
@@ -3311,7 +3312,7 @@
       <c r="A124" s="3">
         <v>44067</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="15">
         <v>4585400</v>
       </c>
       <c r="C124" s="4">
@@ -3326,7 +3327,7 @@
       <c r="A125" s="3">
         <v>44068</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="15">
         <v>2998700</v>
       </c>
       <c r="C125" s="4">
@@ -3341,7 +3342,7 @@
       <c r="A126" s="3">
         <v>44069</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="15">
         <v>2779700</v>
       </c>
       <c r="C126" s="4">
@@ -3356,7 +3357,7 @@
       <c r="A127" s="3">
         <v>44070</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="15">
         <v>3384400</v>
       </c>
       <c r="C127" s="4">
@@ -3371,7 +3372,7 @@
       <c r="A128" s="3">
         <v>44071</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="15">
         <v>4236900</v>
       </c>
       <c r="C128" s="4">
@@ -3386,7 +3387,7 @@
       <c r="A129" s="3">
         <v>44074</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="15">
         <v>37976000</v>
       </c>
       <c r="C129" s="4">
@@ -3401,7 +3402,7 @@
       <c r="A130" s="3">
         <v>44075</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="15">
         <v>23211000</v>
       </c>
       <c r="C130" s="4">
@@ -3416,7 +3417,7 @@
       <c r="A131" s="3">
         <v>44076</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="15">
         <v>13011100</v>
       </c>
       <c r="C131" s="4">
@@ -3431,7 +3432,7 @@
       <c r="A132" s="3">
         <v>44077</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="15">
         <v>14344500</v>
       </c>
       <c r="C132" s="4">
@@ -3446,7 +3447,7 @@
       <c r="A133" s="3">
         <v>44078</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>7662000</v>
       </c>
       <c r="C133" s="4">
@@ -3461,7 +3462,7 @@
       <c r="A134" s="3">
         <v>44082</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>9816600</v>
       </c>
       <c r="C134" s="4">
@@ -3476,7 +3477,7 @@
       <c r="A135" s="3">
         <v>44083</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>9068100</v>
       </c>
       <c r="C135" s="4">
@@ -3491,7 +3492,7 @@
       <c r="A136" s="3">
         <v>44084</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="15">
         <v>15558300</v>
       </c>
       <c r="C136" s="4">
@@ -3506,7 +3507,7 @@
       <c r="A137" s="3">
         <v>44085</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>6061200</v>
       </c>
       <c r="C137" s="4">
@@ -3521,7 +3522,7 @@
       <c r="A138" s="3">
         <v>44088</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="15">
         <v>10119000</v>
       </c>
       <c r="C138" s="4">
@@ -3536,7 +3537,7 @@
       <c r="A139" s="3">
         <v>44089</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="15">
         <v>5743500</v>
       </c>
       <c r="C139" s="4">
@@ -3551,7 +3552,7 @@
       <c r="A140" s="3">
         <v>44090</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="15">
         <v>19256300</v>
       </c>
       <c r="C140" s="4">
@@ -3566,7 +3567,7 @@
       <c r="A141" s="3">
         <v>44091</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="15">
         <v>17026700</v>
       </c>
       <c r="C141" s="4">
@@ -3581,7 +3582,7 @@
       <c r="A142" s="3">
         <v>44092</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="15">
         <v>17407500</v>
       </c>
       <c r="C142" s="4">
@@ -3596,7 +3597,7 @@
       <c r="A143" s="3">
         <v>44095</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="15">
         <v>7639800</v>
       </c>
       <c r="C143" s="4">
@@ -3611,7 +3612,7 @@
       <c r="A144" s="3">
         <v>44096</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="15">
         <v>34752500</v>
       </c>
       <c r="C144" s="4">
@@ -3626,7 +3627,7 @@
       <c r="A145" s="3">
         <v>44097</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="15">
         <v>10651200</v>
       </c>
       <c r="C145" s="4">
@@ -3641,7 +3642,7 @@
       <c r="A146" s="3">
         <v>44098</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="15">
         <v>7938800</v>
       </c>
       <c r="C146" s="4">
@@ -3656,7 +3657,7 @@
       <c r="A147" s="3">
         <v>44099</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="15">
         <v>7515200</v>
       </c>
       <c r="C147" s="4">
@@ -3671,7 +3672,7 @@
       <c r="A148" s="3">
         <v>44102</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="15">
         <v>6764300</v>
       </c>
       <c r="C148" s="4">
@@ -3686,7 +3687,7 @@
       <c r="A149" s="3">
         <v>44103</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="15">
         <v>5237600</v>
       </c>
       <c r="C149" s="4">
@@ -3701,7 +3702,7 @@
       <c r="A150" s="3">
         <v>44104</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="15">
         <v>6079000</v>
       </c>
       <c r="C150" s="4">
@@ -3716,7 +3717,7 @@
       <c r="A151" s="3">
         <v>44105</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="15">
         <v>4554100</v>
       </c>
       <c r="C151" s="4">
@@ -3731,7 +3732,7 @@
       <c r="A152" s="3">
         <v>44106</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="15">
         <v>4340500</v>
       </c>
       <c r="C152" s="4">
@@ -3746,7 +3747,7 @@
       <c r="A153" s="3">
         <v>44109</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="15">
         <v>2805000</v>
       </c>
       <c r="C153" s="4">
@@ -3761,7 +3762,7 @@
       <c r="A154" s="3">
         <v>44110</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="15">
         <v>4535400</v>
       </c>
       <c r="C154" s="4">
@@ -3776,7 +3777,7 @@
       <c r="A155" s="3">
         <v>44111</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="15">
         <v>3308600</v>
       </c>
       <c r="C155" s="4">
@@ -3791,7 +3792,7 @@
       <c r="A156" s="3">
         <v>44112</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="15">
         <v>76453600</v>
       </c>
       <c r="C156" s="4">
@@ -3806,7 +3807,7 @@
       <c r="A157" s="3">
         <v>44113</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="15">
         <v>77152800</v>
       </c>
       <c r="C157" s="4">
@@ -3821,7 +3822,7 @@
       <c r="A158" s="3">
         <v>44116</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="15">
         <v>23655700</v>
       </c>
       <c r="C158" s="4">
@@ -3836,7 +3837,7 @@
       <c r="A159" s="3">
         <v>44117</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="15">
         <v>10179700</v>
       </c>
       <c r="C159" s="4">
@@ -3851,7 +3852,7 @@
       <c r="A160" s="3">
         <v>44118</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="15">
         <v>10776800</v>
       </c>
       <c r="C160" s="4">
@@ -3866,7 +3867,7 @@
       <c r="A161" s="3">
         <v>44119</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="15">
         <v>39894800</v>
       </c>
       <c r="C161" s="4">
@@ -3881,7 +3882,7 @@
       <c r="A162" s="3">
         <v>44120</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="15">
         <v>11651600</v>
       </c>
       <c r="C162" s="4">
@@ -3896,7 +3897,7 @@
       <c r="A163" s="3">
         <v>44123</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="15">
         <v>13169100</v>
       </c>
       <c r="C163" s="4">
@@ -3911,7 +3912,7 @@
       <c r="A164" s="3">
         <v>44124</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="15">
         <v>6604000</v>
       </c>
       <c r="C164" s="4">
@@ -3926,7 +3927,7 @@
       <c r="A165" s="3">
         <v>44125</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B165" s="15">
         <v>5361900</v>
       </c>
       <c r="C165" s="4">
@@ -3941,7 +3942,7 @@
       <c r="A166" s="3">
         <v>44126</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="15">
         <v>16212200</v>
       </c>
       <c r="C166" s="4">
@@ -3956,7 +3957,7 @@
       <c r="A167" s="3">
         <v>44127</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B167" s="15">
         <v>6507300</v>
       </c>
       <c r="C167" s="4">
@@ -3971,7 +3972,7 @@
       <c r="A168" s="3">
         <v>44130</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B168" s="15">
         <v>13376300</v>
       </c>
       <c r="C168" s="4">
@@ -3986,7 +3987,7 @@
       <c r="A169" s="3">
         <v>44131</v>
       </c>
-      <c r="B169" s="16">
+      <c r="B169" s="15">
         <v>7231000</v>
       </c>
       <c r="C169" s="4">
@@ -4001,7 +4002,7 @@
       <c r="A170" s="3">
         <v>44132</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170" s="15">
         <v>6388600</v>
       </c>
       <c r="C170" s="4">
@@ -4016,7 +4017,7 @@
       <c r="A171" s="3">
         <v>44133</v>
       </c>
-      <c r="B171" s="16">
+      <c r="B171" s="15">
         <v>4165800</v>
       </c>
       <c r="C171" s="4">
@@ -4031,7 +4032,7 @@
       <c r="A172" s="3">
         <v>44134</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172" s="15">
         <v>11546900</v>
       </c>
       <c r="C172" s="4">
@@ -4046,7 +4047,7 @@
       <c r="A173" s="3">
         <v>44137</v>
       </c>
-      <c r="B173" s="16">
+      <c r="B173" s="15">
         <v>5227000</v>
       </c>
       <c r="C173" s="4">
@@ -4061,7 +4062,7 @@
       <c r="A174" s="3">
         <v>44138</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B174" s="15">
         <v>7454500</v>
       </c>
       <c r="C174" s="4">
@@ -4076,7 +4077,7 @@
       <c r="A175" s="3">
         <v>44139</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B175" s="15">
         <v>5807900</v>
       </c>
       <c r="C175" s="4">
@@ -4091,7 +4092,7 @@
       <c r="A176" s="3">
         <v>44140</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="15">
         <v>4705200</v>
       </c>
       <c r="C176" s="4">
@@ -4106,7 +4107,7 @@
       <c r="A177" s="3">
         <v>44141</v>
       </c>
-      <c r="B177" s="16">
+      <c r="B177" s="15">
         <v>5518200</v>
       </c>
       <c r="C177" s="4">
@@ -4121,7 +4122,7 @@
       <c r="A178" s="3">
         <v>44144</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="15">
         <v>6244900</v>
       </c>
       <c r="C178" s="4">
@@ -4136,7 +4137,7 @@
       <c r="A179" s="3">
         <v>44145</v>
       </c>
-      <c r="B179" s="16">
+      <c r="B179" s="15">
         <v>3826000</v>
       </c>
       <c r="C179" s="4">
@@ -4151,7 +4152,7 @@
       <c r="A180" s="3">
         <v>44146</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="15">
         <v>4882600</v>
       </c>
       <c r="C180" s="4">
@@ -4166,7 +4167,7 @@
       <c r="A181" s="3">
         <v>44147</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="15">
         <v>4353300</v>
       </c>
       <c r="C181" s="4">
@@ -4181,7 +4182,7 @@
       <c r="A182" s="3">
         <v>44148</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="15">
         <v>3535900</v>
       </c>
       <c r="C182" s="4">
@@ -4196,7 +4197,7 @@
       <c r="A183" s="3">
         <v>44151</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="15">
         <v>9774800</v>
       </c>
       <c r="C183" s="4">
@@ -4211,7 +4212,7 @@
       <c r="A184" s="3">
         <v>44152</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="15">
         <v>6678200</v>
       </c>
       <c r="C184" s="4">
@@ -4226,7 +4227,7 @@
       <c r="A185" s="3">
         <v>44153</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="15">
         <v>3169200</v>
       </c>
       <c r="C185" s="4">
@@ -4241,7 +4242,7 @@
       <c r="A186" s="3">
         <v>44154</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="15">
         <v>11787600</v>
       </c>
       <c r="C186" s="4">
@@ -4256,7 +4257,7 @@
       <c r="A187" s="3">
         <v>44155</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="15">
         <v>8395400</v>
       </c>
       <c r="C187" s="4">
@@ -4271,7 +4272,7 @@
       <c r="A188" s="3">
         <v>44158</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="15">
         <v>9599100</v>
       </c>
       <c r="C188" s="4">
@@ -4286,7 +4287,7 @@
       <c r="A189" s="3">
         <v>44159</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="15">
         <v>7183200</v>
       </c>
       <c r="C189" s="4">
@@ -4301,7 +4302,7 @@
       <c r="A190" s="3">
         <v>44160</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="15">
         <v>8860100</v>
       </c>
       <c r="C190" s="4">
@@ -4316,7 +4317,7 @@
       <c r="A191" s="3">
         <v>44162</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="15">
         <v>12504200</v>
       </c>
       <c r="C191" s="4">
@@ -4331,7 +4332,7 @@
       <c r="A192" s="3">
         <v>44165</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="15">
         <v>31983500</v>
       </c>
       <c r="C192" s="4">
@@ -4346,7 +4347,7 @@
       <c r="A193" s="3">
         <v>44166</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B193" s="15">
         <v>12666000</v>
       </c>
       <c r="C193" s="4">
@@ -4361,7 +4362,7 @@
       <c r="A194" s="3">
         <v>44167</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="15">
         <v>7883400</v>
       </c>
       <c r="C194" s="4">
@@ -4376,7 +4377,7 @@
       <c r="A195" s="3">
         <v>44168</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="15">
         <v>6295000</v>
       </c>
       <c r="C195" s="4">
@@ -4391,7 +4392,7 @@
       <c r="A196" s="3">
         <v>44169</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="15">
         <v>8972700</v>
       </c>
       <c r="C196" s="4">
@@ -4406,7 +4407,7 @@
       <c r="A197" s="3">
         <v>44172</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="15">
         <v>7386300</v>
       </c>
       <c r="C197" s="4">
@@ -4421,7 +4422,7 @@
       <c r="A198" s="3">
         <v>44173</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="15">
         <v>16120200</v>
       </c>
       <c r="C198" s="4">
@@ -4442,7 +4443,7 @@
       <c r="A199" s="3">
         <v>44174</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="15">
         <v>24357900</v>
       </c>
       <c r="C199" s="4">
@@ -4463,7 +4464,7 @@
       <c r="A200" s="3">
         <v>44175</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="15">
         <v>7558900</v>
       </c>
       <c r="C200" s="4">
@@ -4484,7 +4485,7 @@
       <c r="A201" s="3">
         <v>44176</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="15">
         <v>7496900</v>
       </c>
       <c r="C201" s="4">
@@ -4505,7 +4506,7 @@
       <c r="A202" s="3">
         <v>44179</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="15">
         <v>10007100</v>
       </c>
       <c r="C202" s="4">
@@ -4526,7 +4527,7 @@
       <c r="A203" s="3">
         <v>44180</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="15">
         <v>8192900</v>
       </c>
       <c r="C203" s="4">
@@ -4547,7 +4548,7 @@
       <c r="A204" s="3">
         <v>44181</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="15">
         <v>5865100</v>
       </c>
       <c r="C204" s="4">
@@ -4568,7 +4569,7 @@
       <c r="A205" s="3">
         <v>44182</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="15">
         <v>8194900</v>
       </c>
       <c r="C205" s="4">
@@ -4589,7 +4590,7 @@
       <c r="A206" s="3">
         <v>44183</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="15">
         <v>16618800</v>
       </c>
       <c r="C206" s="4">
@@ -4610,7 +4611,7 @@
       <c r="A207" s="3">
         <v>44186</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="15">
         <v>9876100</v>
       </c>
       <c r="C207" s="4">
@@ -4631,7 +4632,7 @@
       <c r="A208" s="3">
         <v>44187</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="15">
         <v>30652700</v>
       </c>
       <c r="C208" s="4">
@@ -4652,7 +4653,7 @@
       <c r="A209" s="3">
         <v>44188</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209" s="15">
         <v>25830300</v>
       </c>
       <c r="C209" s="4">
@@ -4673,7 +4674,7 @@
       <c r="A210" s="3">
         <v>44189</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="15">
         <v>6262200</v>
       </c>
       <c r="C210" s="4">
@@ -4694,7 +4695,7 @@
       <c r="A211" s="3">
         <v>44193</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="15">
         <v>8965900</v>
       </c>
       <c r="C211" s="4">
@@ -4715,7 +4716,7 @@
       <c r="A212" s="3">
         <v>44194</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="15">
         <v>9241400</v>
       </c>
       <c r="C212" s="4">
@@ -4736,7 +4737,7 @@
       <c r="A213" s="3">
         <v>44195</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="15">
         <v>5934400</v>
       </c>
       <c r="C213" s="4">
@@ -4757,7 +4758,7 @@
       <c r="A214" s="3">
         <v>44196</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="15">
         <v>6922700</v>
       </c>
       <c r="C214" s="4">
@@ -4778,7 +4779,7 @@
       <c r="A215" s="3">
         <v>44200</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215" s="15">
         <v>10022500</v>
       </c>
       <c r="C215" s="4">
@@ -4799,7 +4800,7 @@
       <c r="A216" s="3">
         <v>44201</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="15">
         <v>4961500</v>
       </c>
       <c r="C216" s="4">
@@ -4820,7 +4821,7 @@
       <c r="A217" s="3">
         <v>44202</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="15">
         <v>6056200</v>
       </c>
       <c r="C217" s="4">
@@ -4841,7 +4842,7 @@
       <c r="A218" s="3">
         <v>44203</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="15">
         <v>6129300</v>
       </c>
       <c r="C218" s="4">
@@ -4862,7 +4863,7 @@
       <c r="A219" s="3">
         <v>44204</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="15">
         <v>6482000</v>
       </c>
       <c r="C219" s="4">
@@ -4883,7 +4884,7 @@
       <c r="A220" s="3">
         <v>44207</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="15">
         <v>14927600</v>
       </c>
       <c r="C220" s="4">
@@ -4904,7 +4905,7 @@
       <c r="A221" s="3">
         <v>44208</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="15">
         <v>7060700</v>
       </c>
       <c r="C221" s="4">
@@ -4925,7 +4926,7 @@
       <c r="A222" s="3">
         <v>44209</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="15">
         <v>144501700</v>
       </c>
       <c r="C222" s="4">
@@ -4946,7 +4947,7 @@
       <c r="A223" s="3">
         <v>44210</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="15">
         <v>93717400</v>
       </c>
       <c r="C223" s="4">
@@ -4967,7 +4968,7 @@
       <c r="A224" s="3">
         <v>44211</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="15">
         <v>46866400</v>
       </c>
       <c r="C224" s="4">
@@ -4988,7 +4989,7 @@
       <c r="A225" s="3">
         <v>44215</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="15">
         <v>74721900</v>
       </c>
       <c r="C225" s="4">
@@ -5009,7 +5010,7 @@
       <c r="A226" s="3">
         <v>44216</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="15">
         <v>33471800</v>
       </c>
       <c r="C226" s="4">
@@ -5030,7 +5031,7 @@
       <c r="A227" s="3">
         <v>44217</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="15">
         <v>57079800</v>
       </c>
       <c r="C227" s="4">
@@ -5051,7 +5052,7 @@
       <c r="A228" s="3">
         <v>44218</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="15">
         <v>197157900</v>
       </c>
       <c r="C228" s="4">
@@ -5072,7 +5073,7 @@
       <c r="A229" s="3">
         <v>44221</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="15">
         <v>177874000</v>
       </c>
       <c r="C229" s="4">
@@ -5093,7 +5094,7 @@
       <c r="A230" s="3">
         <v>44222</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="15">
         <v>178588000</v>
       </c>
       <c r="C230" s="4">
@@ -5114,7 +5115,7 @@
       <c r="A231" s="3">
         <v>44223</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="15">
         <v>93396700</v>
       </c>
       <c r="C231" s="4">
@@ -5135,7 +5136,7 @@
       <c r="A232" s="3">
         <v>44224</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="15">
         <v>58815800</v>
       </c>
       <c r="C232" s="4">
@@ -5156,7 +5157,7 @@
       <c r="A233" s="3">
         <v>44225</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233" s="15">
         <v>50259200</v>
       </c>
       <c r="C233" s="4">
@@ -5177,7 +5178,7 @@
       <c r="A234" s="3">
         <v>44228</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="15">
         <v>37382200</v>
       </c>
       <c r="C234" s="4">
@@ -5198,7 +5199,7 @@
       <c r="A235" s="3">
         <v>44229</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235" s="15">
         <v>78183100</v>
       </c>
       <c r="C235" s="4">
@@ -5219,7 +5220,7 @@
       <c r="A236" s="3">
         <v>44230</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="15">
         <v>42698500</v>
       </c>
       <c r="C236" s="4">
@@ -5240,7 +5241,7 @@
       <c r="A237" s="3">
         <v>44231</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237" s="15">
         <v>62427300</v>
       </c>
       <c r="C237" s="4">
@@ -5261,7 +5262,7 @@
       <c r="A238" s="3">
         <v>44232</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="15">
         <v>80886300</v>
       </c>
       <c r="C238" s="4">
@@ -5282,7 +5283,7 @@
       <c r="A239" s="3">
         <v>44235</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239" s="15">
         <v>25687300</v>
       </c>
       <c r="C239" s="4">
@@ -5303,7 +5304,7 @@
       <c r="A240" s="3">
         <v>44236</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="15">
         <v>26843100</v>
       </c>
       <c r="C240" s="4">
@@ -5324,7 +5325,7 @@
       <c r="A241" s="3">
         <v>44237</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241" s="15">
         <v>36455000</v>
       </c>
       <c r="C241" s="4">
@@ -5345,7 +5346,7 @@
       <c r="A242" s="3">
         <v>44238</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="15">
         <v>12997400</v>
       </c>
       <c r="C242" s="4">
@@ -5366,7 +5367,7 @@
       <c r="A243" s="3">
         <v>44239</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243" s="15">
         <v>14498000</v>
       </c>
       <c r="C243" s="4">
@@ -5387,7 +5388,7 @@
       <c r="A244" s="3">
         <v>44243</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="15">
         <v>8175000</v>
       </c>
       <c r="C244" s="4">
@@ -5408,7 +5409,7 @@
       <c r="A245" s="3">
         <v>44244</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245" s="15">
         <v>9186800</v>
       </c>
       <c r="C245" s="4">
@@ -5429,7 +5430,7 @@
       <c r="A246" s="3">
         <v>44245</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="15">
         <v>23990600</v>
       </c>
       <c r="C246" s="4">
@@ -5450,7 +5451,7 @@
       <c r="A247" s="3">
         <v>44246</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247" s="15">
         <v>14828200</v>
       </c>
       <c r="C247" s="4">
@@ -5471,7 +5472,7 @@
       <c r="A248" s="3">
         <v>44249</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="15">
         <v>19476000</v>
       </c>
       <c r="C248" s="4">
@@ -5492,7 +5493,7 @@
       <c r="A249" s="3">
         <v>44250</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249" s="15">
         <v>7565200</v>
       </c>
       <c r="C249" s="4">
@@ -5513,7 +5514,7 @@
       <c r="A250" s="3">
         <v>44251</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="15">
         <v>83111700</v>
       </c>
       <c r="C250" s="4">
@@ -5534,7 +5535,7 @@
       <c r="A251" s="3">
         <v>44252</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="15">
         <v>150308800</v>
       </c>
       <c r="C251" s="4">
@@ -5555,7 +5556,7 @@
       <c r="A252" s="3">
         <v>44253</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="15">
         <v>91963000</v>
       </c>
       <c r="C252" s="4">
@@ -5576,7 +5577,7 @@
       <c r="A253" s="3">
         <v>44256</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="15">
         <v>49597300</v>
       </c>
       <c r="C253" s="4">
@@ -5597,7 +5598,7 @@
       <c r="A254" s="3">
         <v>44257</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="15">
         <v>33640400</v>
       </c>
       <c r="C254" s="4">
@@ -5618,7 +5619,7 @@
       <c r="A255" s="3">
         <v>44258</v>
       </c>
-      <c r="B255" s="16">
+      <c r="B255" s="15">
         <v>19173700</v>
       </c>
       <c r="C255" s="4">
@@ -5639,7 +5640,7 @@
       <c r="A256" s="3">
         <v>44259</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="15">
         <v>32473600</v>
       </c>
       <c r="C256" s="4">
@@ -5660,10 +5661,11 @@
       <c r="A257" s="3">
         <v>44260</v>
       </c>
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="15">
-        <v>132.35</v>
+      <c r="D257" s="17">
+        <f>0.1973*A257-8675.8</f>
+        <v>56.69800000000032</v>
       </c>
       <c r="E257" s="14">
         <v>1824</v>
@@ -5679,10 +5681,11 @@
       <c r="A258" s="3">
         <v>44263</v>
       </c>
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="15">
-        <v>132.35</v>
+      <c r="D258" s="17">
+        <f t="shared" ref="D258:D266" si="0">0.1973*A258-8675.8</f>
+        <v>57.28990000000158</v>
       </c>
       <c r="E258" s="14">
         <v>1824</v>
@@ -5698,10 +5701,11 @@
       <c r="A259" s="3">
         <v>44264</v>
       </c>
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="15">
-        <v>132.35</v>
+      <c r="D259" s="17">
+        <f t="shared" si="0"/>
+        <v>57.487200000001394</v>
       </c>
       <c r="E259" s="14">
         <v>1824</v>
@@ -5717,10 +5721,11 @@
       <c r="A260" s="3">
         <v>44265</v>
       </c>
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="15">
-        <v>132.35</v>
+      <c r="D260" s="17">
+        <f t="shared" si="0"/>
+        <v>57.684500000001208</v>
       </c>
       <c r="E260" s="14">
         <v>1824</v>
@@ -5736,10 +5741,11 @@
       <c r="A261" s="3">
         <v>44266</v>
       </c>
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="15">
-        <v>132.35</v>
+      <c r="D261" s="17">
+        <f t="shared" si="0"/>
+        <v>57.881800000001022</v>
       </c>
       <c r="E261" s="14">
         <v>1824</v>
@@ -5755,10 +5761,11 @@
       <c r="A262" s="3">
         <v>44267</v>
       </c>
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="15">
-        <v>132.35</v>
+      <c r="D262" s="17">
+        <f t="shared" si="0"/>
+        <v>58.079100000000835</v>
       </c>
       <c r="E262" s="14">
         <v>1824</v>
@@ -5774,10 +5781,11 @@
       <c r="A263" s="3">
         <v>44270</v>
       </c>
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="15">
-        <v>132.35</v>
+      <c r="D263" s="17">
+        <f t="shared" si="0"/>
+        <v>58.671000000000276</v>
       </c>
       <c r="E263" s="14">
         <v>1824</v>
@@ -5793,10 +5801,11 @@
       <c r="A264" s="3">
         <v>44271</v>
       </c>
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="15">
-        <v>132.35</v>
+      <c r="D264" s="17">
+        <f t="shared" si="0"/>
+        <v>58.86830000000009</v>
       </c>
       <c r="E264" s="14">
         <v>1824</v>
@@ -5812,10 +5821,11 @@
       <c r="A265" s="3">
         <v>44272</v>
       </c>
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="15">
-        <v>132.35</v>
+      <c r="D265" s="17">
+        <f t="shared" si="0"/>
+        <v>59.065600000001723</v>
       </c>
       <c r="E265" s="14">
         <v>1824</v>
@@ -5831,10 +5841,11 @@
       <c r="A266" s="3">
         <v>44273</v>
       </c>
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="15">
-        <v>132.35</v>
+      <c r="D266" s="17">
+        <f t="shared" si="0"/>
+        <v>59.262900000001537</v>
       </c>
       <c r="E266" s="14">
         <v>1824</v>
